--- a/data/trans_dic/P12B1_3_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P12B1_3_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que requiere cuidados especiales &gt;=60 años</t>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,06%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>78,67%</t>
+          <t>6,62%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>77,27%</t>
+          <t>10,53%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>76,36%</t>
+          <t>10,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>65,43%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,88%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,93%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>77,1%</t>
+          <t>13,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>85,08%</t>
+          <t>15,68%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>78,3%</t>
+          <t>13,53%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>80,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>72,63%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>11,94%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,97%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>13,24%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>56,67; 94,08</t>
+          <t>2,72; 12,1</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>60,88; 88,34</t>
+          <t>6,74; 15,77</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>59,8; 87,91</t>
+          <t>6,77; 14,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>47,35; 79,86</t>
+          <t>2,74; 13,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>77,77; 95,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>68,68; 86,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>73,01; 90,16</t>
+          <t>10,42; 24,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>62,45; 86,64</t>
+          <t>9,41; 17,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>74,55; 91,45</t>
+          <t>12,23; 20,38</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>70,77; 85,39</t>
+          <t>7,29; 25,64</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>72,97; 87,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>62,14; 81,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,77; 16,26</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>9,07; 15,29</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>10,5; 16,12</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>6,31; 18,9</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>49,76%</t>
+          <t>4,84%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,56%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>42,44%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>50,43%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>59,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>51,8%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>46,75%</t>
+          <t>3,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>54,66%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>47,04%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>47,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>48,99%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>3,23%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>4,04%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,79; 68,11</t>
+          <t>2,79; 7,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>22,31; 54,16</t>
+          <t>1,84; 5,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>24,13; 59,35</t>
+          <t>2,26; 5,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>33,86; 65,79</t>
+          <t>2,11; 6,65</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,55; 74,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>43,39; 72,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,89; 66,57</t>
+          <t>2,88; 10,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,12; 64,09</t>
+          <t>1,97; 5,15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>42,0; 65,42</t>
+          <t>2,87; 7,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>34,34; 58,13</t>
+          <t>2,72; 7,36</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>33,24; 57,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>37,39; 60,56</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>3,44; 7,75</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 4,59</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>2,84; 6,01</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>2,91; 6,13</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>59,43%</t>
+          <t>1,6%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>65,76%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,04%</t>
+          <t>3,02%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>56,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>3,63%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>50,8%</t>
+          <t>3,48%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,41%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>60,11%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>63,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>51,46%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,66%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,93%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>3,22%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1203,99 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>33,22; 85,33</t>
+          <t>0,44; 4,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>42,15; 89,13</t>
+          <t>1,14; 4,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>36,46; 77,5</t>
+          <t>1,46; 4,28</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>21,82; 79,03</t>
+          <t>1,39; 5,54</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>40,62; 83,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>39,64; 71,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>48,52; 79,18</t>
+          <t>2,01; 6,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>24,23; 79,17</t>
+          <t>1,97; 5,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>43,07; 76,9</t>
+          <t>2,46; 5,58</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>45,07; 75,02</t>
+          <t>1,32; 4,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>51,08; 76,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>31,29; 74,18</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>1,4; 4,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>1,95; 4,26</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>2,25; 4,33</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>1,82; 4,59</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>60,59%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>56,31%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>57,24%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,89%</t>
+          <t>4,58%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>72,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>68,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>69,18%</t>
+          <t>7,84%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>66,14%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>67,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>62,94%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>64,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>7,4%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>7,38%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>6,25%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,2019 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,83; 72,33</t>
+          <t>4,13; 11,24</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>43,27; 67,72</t>
+          <t>2,67; 8,74</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>41,93; 67,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>46,2; 66,95</t>
+          <t>2,4; 7,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>64,25; 80,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>60,76; 75,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>61,9; 75,92</t>
+          <t>5,49; 10,56</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>55,84; 75,38</t>
+          <t>7,05; 14,1</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>58,26; 73,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>55,57; 69,51</t>
+          <t>4,65; 12,98</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>55,33; 70,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>53,52; 69,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>5,8; 10,36</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>5,43; 9,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 8,88</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>5,25%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>4,51%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>4,63%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>4,28%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>7,17%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>6,59%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>7,14%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,7%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>6,23%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>5,57%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>5,51%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>3,88; 7,55</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>3,36; 5,86</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>3,66; 5,91</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>3,08; 5,63</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>5,64; 8,95</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>5,37; 8,01</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 9,01</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>5,09; 9,49</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>5,16; 7,57</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,74; 6,5</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4,99; 6,96</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>4,46; 6,95</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que requiere cuidados especiales &gt;=60 años (tasa de respuesta: 99,06%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>22465</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>55854</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>73535</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28394</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>68404</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>84084</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>140942</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>85223</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>90869</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>139939</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>214477</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>113617</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>9232; 41029</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>35745; 83629</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>48862; 105289</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>12016; 60028</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>43946; 101385</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>60093; 114392</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>109902; 183116</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>45911; 161512</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>59090; 123763</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>106011; 178747</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>170090; 261123</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>67425; 202097</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>45101</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>38387</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>56447</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>41927</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>51088</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>40421</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>70002</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>48645</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>96189</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>78807</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>126449</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>90571</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>26024; 73557</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>22233; 62773</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>36572; 83812</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>21897; 69165</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>28639; 100565</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>24205; 63466</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>43252; 118288</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>28691; 77667</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>66344; 149301</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>53706; 111968</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>88865; 187920</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>61035; 128471</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>11413</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>19589</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>28822</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>24789</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27931</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>32720</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>43625</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>23798</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>39344</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>52308</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>72447</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>48587</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3132; 29249</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9620; 36246</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15947; 46620</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>11379; 45472</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>15430; 51860</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>18549; 50269</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>28570; 64774</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>11544; 42652</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>20764; 63159</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>34853; 75934</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>50509; 97443</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>30824; 77781</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>101728</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>41228</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>49324</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>109894</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>78314</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>78043</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>211622</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>119542</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>127367</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>60143; 163747</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>22868; 74954</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25855; 82722</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>76980; 147920</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>53769; 107582</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>44675; 124739</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>165648; 296132</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>88065; 161373</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>85165; 181043</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>97.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>56.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>180707</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>155058</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>158804</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>144434</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>257317</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>235538</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>254569</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>235709</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>438024</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>390596</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>413373</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>380144</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>133607; 259702</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>115645; 201535</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>125424; 202853</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>103978; 190050</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>202262; 321100</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>191986; 286210</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>208266; 321293</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>179316; 334187</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>362569; 532022</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>332303; 455482</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>348951; 487135</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>307757; 479248</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
